--- a/任务.xlsx
+++ b/任务.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>问题描述：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,14 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提出时间：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系统管理里用户管理改成人员管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,6 +47,38 @@
   </si>
   <si>
     <t>添加操作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端IP分配管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击左面板的vlan树，会刷新vlan视图和清空的文本框，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击空白ip视图，就是新建的过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态终端管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端IP分配管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -62,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,21 +102,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -101,11 +149,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -409,69 +463,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="69.25" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1">
-        <v>42080</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/任务.xlsx
+++ b/任务.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>问题描述：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,14 @@
   </si>
   <si>
     <t>终端IP分配管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出数据日期问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询数据显示不了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +474,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -577,11 +585,39 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
